--- a/biology/Botanique/Paul_Antoine_Charbonnel/Paul_Antoine_Charbonnel.xlsx
+++ b/biology/Botanique/Paul_Antoine_Charbonnel/Paul_Antoine_Charbonnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Antoine Charbonnel, né le 11 mars 1846 à Paris et mort en 1916 dans le Jura, était un artiste peintre et botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1862 à 1870, il fait ses études aux Beaux-Arts de Paris où il est l'élève d'Isidore Pils, Léon Cogniet et Augustin Feyen-Perrin.
 Il expose par trois fois au Salon de peinture de Paris sous le nom d'artiste de Paul-Antoine Baduel : en 1875 (avec La Chanson du Fou), en 1877 (Portrait de Madame V.) et en 1880 (Un duo).
@@ -519,7 +533,7 @@
 Délaissant les aléas de la vie artistique pour embrasser la carrière de professeur de dessin au collège de Saint-Claude (Jura), il se forgea par la suite un certain renom au sein du milieu des botanistes jurassiens par ses études sur les orchidées.
 Charbonnel est l'auteur d'« Observations sur quelques orchidées de la chaîne du Jura » publiées en 1901 dans trois livraisons (numéros 9 à 11) du Bulletin de la Société des naturalistes et des archéologues de l'Ain, complétées par un article sur les
 « Orchidées. Stations particulières à quelques espèces rares du Jura », inséré en 1903 dans le numéro 13 de la même revue.
-Il épouse Cécile Elizabeth Domenc en novembre 1881[1].
+Il épouse Cécile Elizabeth Domenc en novembre 1881.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, son petit-fils, André Charbonnel, donne à la ville de Pamiers et son évêché, six œuvres de son grand-père[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, son petit-fils, André Charbonnel, donne à la ville de Pamiers et son évêché, six œuvres de son grand-père.
 </t>
         </is>
       </c>
